--- a/House cleaning chat.xlsx
+++ b/House cleaning chat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lizhixing/Desktop/CP3407/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labtop\CP3407\CP3407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2220E518-2917-D743-B033-0DC62E40CAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B38468-2BC4-4D65-AD55-015777F75427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="5420" windowWidth="36000" windowHeight="21400" xr2:uid="{7F1DEA00-3F66-DF47-AFF5-9E3A822EB579}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F1DEA00-3F66-DF47-AFF5-9E3A822EB579}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
   <si>
     <t>App Interface Prototype</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -136,7 +136,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -209,23 +209,23 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>779318</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>144319</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>205509</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>195119</xdr:rowOff>
+      <xdr:colOff>443438</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>164347</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="图片 1">
+        <xdr:cNvPr id="4" name="图片 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9346C76C-0D25-DAE8-E636-BA899721A333}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0D0B7C-8452-F7AF-7070-567A07E254BB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -241,8 +241,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5469659" y="2770910"/>
-          <a:ext cx="6007100" cy="4495800"/>
+          <a:off x="6104659" y="2788227"/>
+          <a:ext cx="6868484" cy="4944165"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -254,22 +254,22 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>43295</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>101023</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>551295</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>602223</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>66235</xdr:rowOff>
+      <xdr:rowOff>8659</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2">
+        <xdr:cNvPr id="5" name="图片 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82CCEEE1-05E3-4714-EA73-B62055D56FA4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068613FF-1189-5C2B-A08A-DDB09EA05B2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -285,8 +285,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12137159" y="2727614"/>
-          <a:ext cx="5804477" cy="5218394"/>
+          <a:off x="13447568" y="2788227"/>
+          <a:ext cx="5572541" cy="4987637"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -617,17 +617,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F8C7A1-DD31-ED4C-84A9-C70D3FCEE291}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="88" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="40" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="15.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -671,7 +671,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -700,7 +700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -729,12 +729,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
         <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -755,7 +758,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -784,7 +787,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -810,7 +813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -839,7 +842,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -855,16 +858,22 @@
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
+      <c r="K8">
+        <v>8</v>
+      </c>
       <c r="L8" s="1"/>
       <c r="M8" s="1"/>
       <c r="N8" s="1"/>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
         <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -879,7 +888,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -902,7 +911,7 @@
       <c r="L10" s="1"/>
       <c r="N10" s="1"/>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -922,7 +931,7 @@
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -930,7 +939,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -938,7 +947,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -949,7 +958,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -957,7 +966,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -965,7 +974,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -976,7 +985,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -984,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -992,7 +1001,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1000,7 +1009,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B21">
         <f>SUM(B2:B20)</f>
         <v>50</v>

--- a/House cleaning chat.xlsx
+++ b/House cleaning chat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\labtop\CP3407\CP3407\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59B38468-2BC4-4D65-AD55-015777F75427}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20E99538-48FC-453F-AB31-6B917ECBDBD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{7F1DEA00-3F66-DF47-AFF5-9E3A822EB579}"/>
   </bookViews>
@@ -36,100 +36,78 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+  <si>
+    <t>Actual Velocity</t>
+  </si>
+  <si>
+    <t>DONE</t>
+  </si>
+  <si>
+    <t>Title：</t>
+  </si>
+  <si>
+    <t>Total points</t>
+  </si>
   <si>
     <t>App Interface Prototype</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Title：</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>User Registration &amp; Login</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Booking a Cleaning Service</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Viewing Available Time Slots</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cleaner Profile and Rating System</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Real-Time Chat with Cleaners</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Booking Status Notification</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Payment Integration</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Rebooking and Service History</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cleaner Availability Management</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
   </si>
   <si>
     <t>Admin Dashboard &amp; Monitoring</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Review and Rating Submission</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Feedback System for App Improvement</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Push Notification for Booking Reminder</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Emergency Cancellation Option</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Multilingual Support</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Cleaner Verification Process</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Promotional Offers and Discount Codes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Location-based Booking Suggestions</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Total points</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Actual Velocity</t>
-  </si>
-  <si>
-    <t>DONE</t>
-  </si>
-  <si>
-    <t>DONE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -215,17 +193,17 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>443438</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>164347</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1295424</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>54230</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3">
+        <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7A0D0B7C-8452-F7AF-7070-567A07E254BB}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD32C9C6-4949-423B-BF20-A09BAE6DBDF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -242,34 +220,38 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6104659" y="2788227"/>
-          <a:ext cx="6868484" cy="4944165"/>
+          <a:ext cx="10474060" cy="3439935"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>33</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>602223</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>8659</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1256689</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>195298</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4">
+        <xdr:cNvPr id="3" name="图片 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{068613FF-1189-5C2B-A08A-DDB09EA05B2D}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E336C9ED-5D76-455E-AE65-D664F5F1946F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -285,12 +267,64 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="13447568" y="2788227"/>
-          <a:ext cx="5572541" cy="4987637"/>
+          <a:off x="6104659" y="6572250"/>
+          <a:ext cx="10435325" cy="3381843"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>1084632</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>174977</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{11FC565F-AEC0-4D70-86FB-FF6A82CAE140}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6104659" y="10157114"/>
+          <a:ext cx="10263268" cy="3361522"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -617,8 +651,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83F8C7A1-DD31-ED4C-84A9-C70D3FCEE291}">
   <dimension ref="A1:O21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="88" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="88" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -629,10 +663,10 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="D1">
         <v>50</v>
@@ -668,18 +702,18 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -702,13 +736,13 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -731,13 +765,13 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B4">
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D4">
         <v>3</v>
@@ -760,13 +794,13 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D5">
         <v>4</v>
@@ -789,10 +823,13 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B6">
         <v>2</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1</v>
       </c>
       <c r="D6">
         <v>5</v>
@@ -815,13 +852,13 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="D7">
         <v>6</v>
@@ -844,10 +881,13 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B8">
         <v>3</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1</v>
       </c>
       <c r="D8">
         <v>7</v>
@@ -867,13 +907,13 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B9">
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D9">
         <v>8</v>
@@ -885,18 +925,21 @@
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
+      <c r="L9">
+        <v>6</v>
+      </c>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B10">
         <v>2</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="D10">
         <v>9</v>
@@ -909,14 +952,20 @@
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
+      <c r="M10">
+        <v>2</v>
+      </c>
       <c r="N10" s="1"/>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>14</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -930,83 +979,107 @@
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
       <c r="M11" s="1"/>
+      <c r="N11">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B12">
         <v>3</v>
       </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B13">
         <v>2</v>
       </c>
+      <c r="C13" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B14">
         <v>1</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B15">
         <v>2</v>
       </c>
+      <c r="C15" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B16">
         <v>3</v>
       </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B17">
         <v>1</v>
       </c>
       <c r="C17" t="s">
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B18">
         <v>4</v>
       </c>
+      <c r="C18" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>2</v>
       </c>
+      <c r="C19" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B20">
         <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
